--- a/excelFiles/Personal Budget1.xlsx
+++ b/excelFiles/Personal Budget1.xlsx
@@ -8,24 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richardmerced/NFAR/NFAR-Tech100/cohort14/TA300-Testing-Automation/excelFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{15A70814-53E9-3949-9F1D-0F0E4E07C333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C485AE7E-EC2A-D64C-9DB2-C213B2FC812E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="550" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14060" tabRatio="550" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Current Month" sheetId="1" r:id="rId1"/>
-    <sheet name="New Sheet" sheetId="3" r:id="rId2"/>
-    <sheet name="Current Month (2)" sheetId="4" r:id="rId3"/>
-    <sheet name="Chart Data" sheetId="2" state="hidden" r:id="rId4"/>
+    <sheet name="Current Month (2)" sheetId="4" r:id="rId2"/>
+    <sheet name="Chart Data" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Current Month'!$16:$17</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">'Current Month (2)'!$16:$17</definedName>
-    <definedName name="TotalMonthlyExpenses" localSheetId="2">'Current Month (2)'!$F$9</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'Current Month (2)'!$16:$17</definedName>
+    <definedName name="TotalMonthlyExpenses" localSheetId="1">'Current Month (2)'!$F$9</definedName>
     <definedName name="TotalMonthlyExpenses">'Current Month'!$F$9</definedName>
-    <definedName name="TotalMonthlyIncome" localSheetId="2">'Current Month (2)'!$F$6</definedName>
+    <definedName name="TotalMonthlyIncome" localSheetId="1">'Current Month (2)'!$F$6</definedName>
     <definedName name="TotalMonthlyIncome">'Current Month'!$F$6</definedName>
-    <definedName name="TotalMonthlySavings" localSheetId="2">'Current Month (2)'!$F$12</definedName>
+    <definedName name="TotalMonthlySavings" localSheetId="1">'Current Month (2)'!$F$12</definedName>
     <definedName name="TotalMonthlySavings">'Current Month'!$F$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -49,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="33">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -148,9 +147,6 @@
   </si>
   <si>
     <t>Monthly Savings</t>
-  </si>
-  <si>
-    <t>A lot of stuff in here</t>
   </si>
 </sst>
 </file>
@@ -345,6 +341,16 @@
   <dxfs count="25">
     <dxf>
       <font>
+        <color theme="7"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <name val="Century Gothic"/>
         <scheme val="minor"/>
       </font>
@@ -417,16 +423,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -4042,11 +4038,11 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{97862C48-FEBD-9A45-A127-7EBCCFB5CDF8}" name="MonthlyIncome5" displayName="MonthlyIncome5" ref="B17:C20" totalsRowShown="0" dataDxfId="9" headerRowCellStyle="Heading 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{97862C48-FEBD-9A45-A127-7EBCCFB5CDF8}" name="MonthlyIncome5" displayName="MonthlyIncome5" ref="B17:C20" totalsRowShown="0" dataDxfId="11" headerRowCellStyle="Heading 2">
   <autoFilter ref="B17:C20" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{60A18DF2-2BF0-DA4F-8F4C-D74387CD4CCC}" name="ITEM" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{8E45D114-E2B1-F044-A33C-5E10ADBEF692}" name="AMOUNT" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{60A18DF2-2BF0-DA4F-8F4C-D74387CD4CCC}" name="ITEM" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{8E45D114-E2B1-F044-A33C-5E10ADBEF692}" name="AMOUNT" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="Personal budget table" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4058,12 +4054,12 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{23FD6B32-EF0F-1C41-814A-EE639C22BB81}" name="MonthlyExpenses6" displayName="MonthlyExpenses6" ref="E17:G30" totalsRowShown="0" dataDxfId="6" headerRowCellStyle="Heading 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{23FD6B32-EF0F-1C41-814A-EE639C22BB81}" name="MonthlyExpenses6" displayName="MonthlyExpenses6" ref="E17:G30" totalsRowShown="0" dataDxfId="8" headerRowCellStyle="Heading 2">
   <autoFilter ref="E17:G30" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{48D8ECFB-2591-3D4C-A5A1-768EFB222161}" name="ITEM" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{8F93BAAA-3FFE-2F41-87E0-AF57CCFD7684}" name="DUE DATE" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{1E47E369-9EDA-5546-942B-2D61A4B8E9C6}" name="AMOUNT" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{48D8ECFB-2591-3D4C-A5A1-768EFB222161}" name="ITEM" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{8F93BAAA-3FFE-2F41-87E0-AF57CCFD7684}" name="DUE DATE" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{1E47E369-9EDA-5546-942B-2D61A4B8E9C6}" name="AMOUNT" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="Personal budget table" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4075,11 +4071,11 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{74D25E78-5ACD-1647-867F-9EF192316FDF}" name="Savings7" displayName="Savings7" ref="I17:J20" totalsRowShown="0" dataDxfId="2" headerRowCellStyle="Heading 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{74D25E78-5ACD-1647-867F-9EF192316FDF}" name="Savings7" displayName="Savings7" ref="I17:J20" totalsRowShown="0" dataDxfId="4" headerRowCellStyle="Heading 2">
   <autoFilter ref="I17:J20" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{93472A88-4FAC-334D-88D6-7B6D84F06219}" name="DATE" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{8FF3C6C6-FA35-B84E-A235-AE93D90E2632}" name="AMOUNT" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{93472A88-4FAC-334D-88D6-7B6D84F06219}" name="DATE" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{8FF3C6C6-FA35-B84E-A235-AE93D90E2632}" name="AMOUNT" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="Personal budget table" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4762,804 +4758,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5772F00E-E96E-1748-A67A-75F6029D57E9}">
-  <dimension ref="A1:I27"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" t="s">
-        <v>33</v>
-      </c>
-      <c r="I14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H15" t="s">
-        <v>33</v>
-      </c>
-      <c r="I15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" t="s">
-        <v>33</v>
-      </c>
-      <c r="H16" t="s">
-        <v>33</v>
-      </c>
-      <c r="I16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" t="s">
-        <v>33</v>
-      </c>
-      <c r="H17" t="s">
-        <v>33</v>
-      </c>
-      <c r="I17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18" t="s">
-        <v>33</v>
-      </c>
-      <c r="I18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" t="s">
-        <v>33</v>
-      </c>
-      <c r="H19" t="s">
-        <v>33</v>
-      </c>
-      <c r="I19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" t="s">
-        <v>33</v>
-      </c>
-      <c r="G20" t="s">
-        <v>33</v>
-      </c>
-      <c r="H20" t="s">
-        <v>33</v>
-      </c>
-      <c r="I20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" t="s">
-        <v>33</v>
-      </c>
-      <c r="H21" t="s">
-        <v>33</v>
-      </c>
-      <c r="I21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" t="s">
-        <v>33</v>
-      </c>
-      <c r="H22" t="s">
-        <v>33</v>
-      </c>
-      <c r="I22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" t="s">
-        <v>33</v>
-      </c>
-      <c r="F23" t="s">
-        <v>33</v>
-      </c>
-      <c r="G23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H23" t="s">
-        <v>33</v>
-      </c>
-      <c r="I23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" t="s">
-        <v>33</v>
-      </c>
-      <c r="F24" t="s">
-        <v>33</v>
-      </c>
-      <c r="G24" t="s">
-        <v>33</v>
-      </c>
-      <c r="H24" t="s">
-        <v>33</v>
-      </c>
-      <c r="I24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" t="s">
-        <v>33</v>
-      </c>
-      <c r="F25" t="s">
-        <v>33</v>
-      </c>
-      <c r="G25" t="s">
-        <v>33</v>
-      </c>
-      <c r="H25" t="s">
-        <v>33</v>
-      </c>
-      <c r="I25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" t="s">
-        <v>33</v>
-      </c>
-      <c r="F26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G26" t="s">
-        <v>33</v>
-      </c>
-      <c r="H26" t="s">
-        <v>33</v>
-      </c>
-      <c r="I26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" t="s">
-        <v>33</v>
-      </c>
-      <c r="F27" t="s">
-        <v>33</v>
-      </c>
-      <c r="G27" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" t="s">
-        <v>33</v>
-      </c>
-      <c r="I27" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED8F802-A4AE-D846-836B-45C55043E787}">
   <sheetPr>
     <tabColor theme="3" tint="0.249977111117893"/>
@@ -5567,7 +4765,7 @@
   </sheetPr>
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
@@ -6029,7 +5227,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <tabColor theme="1" tint="0.249977111117893"/>
